--- a/docs/shrcore/shr-core-MedicationAdministration.xlsx
+++ b/docs/shrcore/shr-core-MedicationAdministration.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="378">
   <si>
     <t>Path</t>
   </si>
@@ -474,6 +474,16 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatusReason-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
     <t>statementdatetime</t>
   </si>
   <si>
@@ -484,6 +494,16 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>medicationcodeorreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationCodeOrReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A choice of a medication code or reference.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.modifierExtension</t>
   </si>
   <si>
@@ -540,7 +560,7 @@
     <t>MedicationAdministration.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
 </t>
   </si>
   <si>
@@ -618,7 +638,7 @@
   </si>
   <si>
     <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Medication]]}</t>
   </si>
   <si>
     <t>What was administered</t>
@@ -636,10 +656,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>…code</t>
   </si>
   <si>
@@ -650,15 +666,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -714,7 +721,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
@@ -787,6 +794,16 @@
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
+    <t>participationtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ParticipationType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The role played by the participant engaged in the action, for example, as the attending physician, surgical assistant, etc.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
   </si>
   <si>
@@ -975,7 +992,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -994,7 +1011,7 @@
     <t>MedicationAdministration.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
 </t>
   </si>
   <si>
@@ -1030,6 +1047,16 @@
   </si>
   <si>
     <t>MedicationAdministration.dosage.extension</t>
+  </si>
+  <si>
+    <t>dosesequencenumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DoseSequenceNumber-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Dose number within series.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.modifierExtension</t>
@@ -1061,10 +1088,7 @@
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/us/shrcore/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1327,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1337,7 +1361,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.02734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3190,7 +3214,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>43</v>
@@ -3307,7 +3331,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3406,40 +3430,38 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K19" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3488,7 +3510,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3506,7 +3528,7 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3520,18 +3542,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3543,13 +3567,11 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3599,11 +3621,15 @@
       <c r="AD20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3611,13 +3637,13 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3628,11 +3654,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3645,21 +3671,23 @@
         <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3707,11 +3735,15 @@
       <c r="AD21" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3719,10 +3751,10 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3736,7 +3768,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3756,16 +3788,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3827,13 +3859,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3844,7 +3876,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3852,32 +3884,30 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3902,13 +3932,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3937,16 +3967,16 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3954,7 +3984,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3965,7 +3995,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3974,16 +4004,16 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4010,13 +4040,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4045,10 +4075,10 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4062,7 +4092,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4079,22 +4109,22 @@
         <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4120,36 +4150,34 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4157,16 +4185,16 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4174,17 +4202,15 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -4196,16 +4222,16 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4232,11 +4258,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4253,15 +4281,11 @@
       <c r="AD26" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4272,7 +4296,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4286,7 +4310,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4309,15 +4333,17 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4342,13 +4368,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4365,32 +4391,28 @@
       <c r="AD27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AE27" s="2"/>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4420,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4406,7 +4428,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>52</v>
@@ -4418,16 +4440,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4477,11 +4499,15 @@
       <c r="AD28" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG28" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4489,16 +4515,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4506,7 +4532,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4517,7 +4543,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4529,13 +4555,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4597,16 +4623,16 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4614,7 +4640,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4622,10 +4648,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4634,16 +4660,16 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4693,15 +4719,11 @@
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4709,16 +4731,16 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4726,7 +4748,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4734,7 +4756,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>52</v>
@@ -4749,13 +4771,13 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4806,31 +4828,31 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4838,7 +4860,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4858,16 +4880,16 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4918,31 +4940,31 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4950,18 +4972,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
@@ -4973,17 +4995,15 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5032,13 +5052,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5064,11 +5084,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5081,19 +5101,19 @@
         <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>75</v>
@@ -5134,19 +5154,17 @@
         <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5164,7 +5182,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5178,15 +5196,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>52</v>
@@ -5198,16 +5218,14 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5257,11 +5275,15 @@
       <c r="AD35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5269,10 +5291,10 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5286,38 +5308,40 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5365,11 +5389,15 @@
       <c r="AD36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5377,10 +5405,10 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5394,7 +5422,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5402,39 +5430,35 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5477,15 +5501,11 @@
       <c r="AD37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>52</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5493,16 +5513,16 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5510,7 +5530,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5521,7 +5541,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5533,13 +5553,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5566,13 +5586,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5589,32 +5609,28 @@
       <c r="AD38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5622,7 +5638,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5633,32 +5649,36 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5678,13 +5698,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5701,28 +5721,32 @@
       <c r="AD39" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH39" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5730,7 +5754,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5741,7 +5765,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5753,17 +5777,15 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5788,13 +5810,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5811,36 +5833,40 @@
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5851,7 +5877,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -5863,13 +5889,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5896,13 +5922,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5925,22 +5951,22 @@
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5948,7 +5974,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5971,15 +5997,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6039,24 +6067,24 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6067,7 +6095,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6079,13 +6107,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6147,16 +6175,16 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6164,7 +6192,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6175,7 +6203,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6187,13 +6215,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6252,19 +6280,19 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6272,7 +6300,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6283,7 +6311,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6295,13 +6323,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6351,15 +6379,11 @@
       <c r="AD45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>52</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6367,10 +6391,10 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6384,18 +6408,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6407,17 +6431,15 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6465,26 +6487,22 @@
       <c r="AD46" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -6498,40 +6516,38 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6580,13 +6596,13 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
@@ -6598,7 +6614,7 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6612,18 +6628,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6635,15 +6651,17 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>325</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6680,22 +6698,24 @@
         <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
       </c>
@@ -6706,7 +6726,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -6720,9 +6740,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>41</v>
       </c>
@@ -6743,17 +6765,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K49" t="s" s="2">
         <v>329</v>
       </c>
+      <c r="K49" s="2"/>
       <c r="L49" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -6778,13 +6796,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -6801,11 +6819,15 @@
       <c r="AD49" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
@@ -6816,13 +6838,13 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -6830,38 +6852,40 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -6886,13 +6910,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -6909,11 +6933,15 @@
       <c r="AD50" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
@@ -6924,13 +6952,13 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>341</v>
+        <v>141</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>41</v>
@@ -6938,7 +6966,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6961,17 +6989,15 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -6996,13 +7022,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7034,13 +7060,13 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7048,7 +7074,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7071,16 +7097,16 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7106,13 +7132,11 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7144,13 +7168,13 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7158,7 +7182,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7181,17 +7205,15 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7216,13 +7238,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7254,13 +7276,13 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7268,7 +7290,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7279,7 +7301,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7291,16 +7313,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>366</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7326,13 +7348,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7364,20 +7386,350 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" s="2"/>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" s="2"/>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" s="2"/>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7387,7 +7739,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
